--- a/Android.xlsx
+++ b/Android.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabic\Documents\CIE DADOS\CieDados-Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3CB3433-E039-4812-99B1-E187F634BFEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287DEA5E-70FB-4470-BE53-19C1FD7814DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="1100">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3706,6 +3706,9 @@
   <si>
     <t>@lwtmysun91 @sincerojesuis mas android tbm tem modo noturno, moça
 eu por exemplo, uso modo noturno no android</t>
+  </si>
+  <si>
+    <t>Relevância</t>
   </si>
 </sst>
 </file>
@@ -3775,12 +3778,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -4122,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B651"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4135,6 +4139,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7924,7 +7931,7 @@
       <c r="A475" t="s">
         <v>473</v>
       </c>
-      <c r="B475">
+      <c r="B475" s="3">
         <v>0</v>
       </c>
     </row>
@@ -7957,7 +7964,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -7965,7 +7972,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -7981,7 +7988,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -8021,7 +8028,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -8061,7 +8068,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -8077,7 +8084,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -8109,7 +8116,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -8117,7 +8124,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -8149,7 +8156,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -8165,7 +8172,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
@@ -8189,7 +8196,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -8213,7 +8220,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -8237,7 +8244,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
@@ -8253,7 +8260,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -8277,7 +8284,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -8317,7 +8324,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -8373,7 +8380,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -8437,7 +8444,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
@@ -8445,7 +8452,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
@@ -8461,7 +8468,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -8469,7 +8476,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -8477,7 +8484,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -8493,7 +8500,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -8525,7 +8532,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -8549,7 +8556,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -8581,7 +8588,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -8621,7 +8628,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
@@ -8629,7 +8636,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
@@ -8637,7 +8644,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
@@ -8677,7 +8684,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
@@ -8685,7 +8692,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
@@ -8701,7 +8708,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
@@ -8709,7 +8716,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
@@ -8717,7 +8724,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
@@ -8741,7 +8748,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
@@ -8797,7 +8804,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -8821,7 +8828,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
@@ -8837,7 +8844,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -8845,7 +8852,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
@@ -8877,7 +8884,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
@@ -8885,7 +8892,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
@@ -8901,7 +8908,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -8917,7 +8924,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
@@ -8925,7 +8932,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
@@ -8933,7 +8940,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
@@ -8973,7 +8980,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
@@ -8981,7 +8988,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
@@ -9013,7 +9020,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
@@ -9069,7 +9076,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
@@ -9141,7 +9148,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
@@ -9205,7 +9212,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
@@ -9229,7 +9236,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
@@ -9261,7 +9268,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
@@ -9269,7 +9276,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
@@ -9293,7 +9300,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
@@ -9333,7 +9340,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9348,8 +9355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Android.xlsx
+++ b/Android.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabic\Documents\CIE DADOS\CieDados-Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287DEA5E-70FB-4470-BE53-19C1FD7814DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287C980E-30ED-4D20-9785-DEC6FFBB593C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -4126,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B651"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B651"/>
+    <sheetView topLeftCell="A285" zoomScale="77" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="A360" sqref="A360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9355,8 +9355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B651"/>
+    <sheetView tabSelected="1" topLeftCell="A451" zoomScale="59" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11735,7 +11735,7 @@
         <v>944</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -11759,7 +11759,7 @@
         <v>947</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -12039,7 +12039,7 @@
         <v>982</v>
       </c>
       <c r="B335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -12167,7 +12167,7 @@
         <v>998</v>
       </c>
       <c r="B351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -12223,7 +12223,7 @@
         <v>1005</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -12231,7 +12231,7 @@
         <v>1006</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -12239,7 +12239,7 @@
         <v>1007</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -12335,7 +12335,7 @@
         <v>1019</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -12375,7 +12375,7 @@
         <v>1024</v>
       </c>
       <c r="B377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -12415,7 +12415,7 @@
         <v>1029</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -12455,7 +12455,7 @@
         <v>1034</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -12479,7 +12479,7 @@
         <v>1037</v>
       </c>
       <c r="B390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -12607,7 +12607,7 @@
         <v>1053</v>
       </c>
       <c r="B406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -12663,7 +12663,7 @@
         <v>1060</v>
       </c>
       <c r="B413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -12751,7 +12751,7 @@
         <v>1071</v>
       </c>
       <c r="B424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -12855,7 +12855,7 @@
         <v>1084</v>
       </c>
       <c r="B437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -12895,7 +12895,7 @@
         <v>1089</v>
       </c>
       <c r="B442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
